--- a/biology/Botanique/Ravageurs_des_céréales/Ravageurs_des_céréales.xlsx
+++ b/biology/Botanique/Ravageurs_des_céréales/Ravageurs_des_céréales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+          <t>Ravageurs_des_céréales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ravageurs des céréales sont nombreux et appartiennent majoritairement à la classe des insectes. Outre les dommages directs qu'ils causent aux cultures de céréales, ils sont aussi dans certains cas les vecteurs de viroses et d'autres maladies. Beaucoup d'entre eux sont polyphages, mais certains insectes peuvent être plus spécialisés dans les Poaceae et attaquer aussi d'autres plantes cultivées (graminées fourragères, gazons). 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+          <t>Ravageurs_des_céréales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,25 +525,145 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Insectes
-De nombreuses espèces d'insectes sont des déprédateurs des céréales, s'attaquant soit à la plante en phase de culture, aux divers stades de croissance de la plante, soit aux grains entreposés.
-Coléoptères
-Criocères : Oulema melanopus, Oulema lichenis
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreuses espèces d'insectes sont des déprédateurs des céréales, s'attaquant soit à la plante en phase de culture, aux divers stades de croissance de la plante, soit aux grains entreposés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Criocères : Oulema melanopus, Oulema lichenis
 Taupins, diverses espèces du genre Agriotes et Athous : Agriotes lineatus (taupin des moissons), Agriotes obscurus, Agriotes sputator
 Zabre des céréales (Zabrus tenebrioides)
 Geotrogus deserticola
 Heteronychus oryzae
 Sitophilus zeamais (charançon du maïs)
 Sitophilus oryzae (charançon du riz)
-Sitophilus granarius (charençon des greniers)
-Diptères
-Tipules : Tipula paludosa, Tipula oleracea.
+Sitophilus granarius (charençon des greniers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tipules : Tipula paludosa, Tipula oleracea.
 Mouches : mouche grise des céréales (Phorbia coarctata), mouche de hesse
 mouches mineuses des céréales : Agromyza spp., notamment Agromyza megalopsis, Agromyza intermittens, Agromyza nigrella, Hydrellia griseola
 cécidomyies : Mayetiola destructor (cécidomyie destructive), Mayetiola hordei (cécidomyie à galle de l'orge), Sitodiplosis mosellana (cécidomyie orangée du blé) , Contarinia tritici (cécidomyie des fleurs du blé), Haplodiplosis marginata (cécidomyie des tiges du blé).
-oscinies : Oscinella frit, Oscinella pusilla.
-Hémiptères
-Pucerons : Rhopalosiphum padi (puceron des céréales, puceron des grains, puceron vert de l'avoine), Rhopalosiphum maidis (puceron du maïs), Sitobion avenae,  Metopolophium dirhodum (puceron des céréales et du rosier, grand puceron des céréales), Byrsocrypta personata (puceron de l'orme et des céréales) ; ces pucerons sont des vecteurs du virus de la jaunisse nanisante de l'orge (Barley yellow dwarf virus, BYDV), Schizaphis graminum (puceron vert des graminées)
+oscinies : Oscinella frit, Oscinella pusilla.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pucerons : Rhopalosiphum padi (puceron des céréales, puceron des grains, puceron vert de l'avoine), Rhopalosiphum maidis (puceron du maïs), Sitobion avenae,  Metopolophium dirhodum (puceron des céréales et du rosier, grand puceron des céréales), Byrsocrypta personata (puceron de l'orme et des céréales) ; ces pucerons sont des vecteurs du virus de la jaunisse nanisante de l'orge (Barley yellow dwarf virus, BYDV), Schizaphis graminum (puceron vert des graminées)
 Diuraphis noxia (puceron russe du blé)
 Eurygaster integriceps (punaise des céréales)
 Nezara viridula (punaise verte puante)
@@ -540,8 +672,47 @@
 Agonoscelis versicolor (punaise du mil du Soudan)
 Psammotettix alienus (cicadelle des céréales, vectrice du virus de la maladie des pieds chétifs (Wheat Dwarf Virus, WDV)
 Dalbulus maidis (cicadelle du rabougrissement du maïs)
-Cicadulina mbila (cicadelle vectrice du virus de la striure du maïs)
-Lépidoptères
+Cicadulina mbila (cicadelle vectrice du virus de la striure du maïs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Noctuelles :  Apamea sordens (noctuelle du blé ),  Agrotis segetum (noctuelle des moissons),  Agrotis ipsilon (noctuelle ipsilon),  Autographa gamma (noctuelle gamma),  Sesamia nonagrioides (noctuelle du maïs), Loxostege sticticalis
 Spodoptera frugiperda (noctuelle américaine du maïs)
 Busseola fusca (foreur africain des tiges de maïs ou de sorgho)
@@ -555,57 +726,171 @@
 Diatrea grandiosella (grande chenille mineuse du maïs)
 Diatraea saccharalis (chenille mineuse des tiges de la canne à sucre)
 Cnephasia pumicana (tordeuse des céréales)
-Sitotroga cerealella (teigne des céréales ou alucite des céréales)
-Thysanoptères
-Thrips : Limothrips cerealium (thrips des céréales), Limothrips denticornis (thrips des céréales), Thrips angusticeps (thrips du lin et des céréales), Haplothrips tritici (thrips du blé), Frankliniella tritici (thrips des fleurs), Anaplothrips  obscurus, Chloethrips oryzae
-Haplothrips aculeatus (thrips long du riz)
-Nématodes
-Diverses espèces de nématodes attaquent également les céréales.
-La plus importante est Heterodera avenae (nématode de l'avoine), à répartition quasi-cosmopolite. Cette appartient au complexe de nématodes à kystes des céréales, complexe d'espèces proches et difficiles à différencier, comprenant notamment parmi les plus importantes sur le plan économique Heterodera latipons (bassin méditerranéen),  Heterodera hordecalis (Allemagne, Scandinavie, Royaume-Uni), Heterodera zeae (Inde, Pakistan), Heterodera filipjevi (Russie, Turquie)[1].
+Sitotroga cerealella (teigne des céréales ou alucite des céréales)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Thysanoptères</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Thrips : Limothrips cerealium (thrips des céréales), Limothrips denticornis (thrips des céréales), Thrips angusticeps (thrips du lin et des céréales), Haplothrips tritici (thrips du blé), Frankliniella tritici (thrips des fleurs), Anaplothrips  obscurus, Chloethrips oryzae
+Haplothrips aculeatus (thrips long du riz)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nématodes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Diverses espèces de nématodes attaquent également les céréales.
+La plus importante est Heterodera avenae (nématode de l'avoine), à répartition quasi-cosmopolite. Cette appartient au complexe de nématodes à kystes des céréales, complexe d'espèces proches et difficiles à différencier, comprenant notamment parmi les plus importantes sur le plan économique Heterodera latipons (bassin méditerranéen),  Heterodera hordecalis (Allemagne, Scandinavie, Royaume-Uni), Heterodera zeae (Inde, Pakistan), Heterodera filipjevi (Russie, Turquie).
 Autres espèces notables :
 Anguina tritici (anguillule de la nielle du blé),
 Aphelenchoides besseyi (anguillulose des feuilles de riz),
 Ditylenchus dipsaci (anguillule des céréales).
 Meloidogyne naasi (nématode des céréales),
-Pratylenchus penetrans (nématode des prairies),
-Autres groupes
-D’autres groupes d’animaux sont également concernés, les acariens dont le tétranyque tisserand (Tetranychus urticae) et l’acarien des racines (Rhizoglyphus echinopus)  et parmi les mollusques ; la petite limace grise (Deroceras reticulatum).
+Pratylenchus penetrans (nématode des prairies),</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ravageurs des cultures de céréales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres groupes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’autres groupes d’animaux sont également concernés, les acariens dont le tétranyque tisserand (Tetranychus urticae) et l’acarien des racines (Rhizoglyphus echinopus)  et parmi les mollusques ; la petite limace grise (Deroceras reticulatum).
 Des mollusques, notamment Agriolimax agrestis, attaquent les jeunes plants.
 Des mammifères  peuvent aussi causer des dégâts aux cultures et aux stocks de céréales, notamment les rongeurs.
-Les oiseaux sont redoutés lorsqu'ils volent en essaims nombreux, tels l'étourneau sansonnet en Europe, qui attaque les semis[2], ou le « mange-mil », Quelea quelea, qui pille les épis sur pieds en Afrique[3].
+Les oiseaux sont redoutés lorsqu'ils volent en essaims nombreux, tels l'étourneau sansonnet en Europe, qui attaque les semis, ou le « mange-mil », Quelea quelea, qui pille les épis sur pieds en Afrique.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ravageurs_des_c%C3%A9r%C3%A9ales</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ravageurs des grains entreposés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Insectes
-Coléoptères
-Alucite des céréales  : Sitotroga cerealella
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Alucite des céréales  : Sitotroga cerealella
 Capucin des grains ou Petit perceur des grains : Rhizopertha dominica
 Charançon du blé : Sitophilus granarius 
 Charançon du maïs : sitophilus zeamais
@@ -618,17 +903,89 @@
 Trogoderme des grains : Trogoderma granarium
 Trogoderme glabre : Trogoderma glabrum
 Vrillette du pain : Stegobium paniceum
-Vrillette du tabac : Lasioderma serricorne[4]
-Lépidoptères
-Pyrale de la farine : Ephestia kuehniella
+Vrillette du tabac : Lasioderma serricorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ravageurs des grains entreposés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Pyrale de la farine : Ephestia kuehniella
 Pyrale des amandes : Ephestia cautella
 Pyrale du riz : Corcyra cephalonica
 Pyrale des fruits secs : Plodia interpunctella
 Pyrale de la farine : Pyralis farinalis
 Teigne du cacao : Ephestia elutella
-Teigne des grains : Nemapogon granella
-Arachnides
-Tyroglyphe de la farine : Acarus siro
+Teigne des grains : Nemapogon granella</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ravageurs_des_céréales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_des_c%C3%A9r%C3%A9ales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ravageurs des grains entreposés</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Tyroglyphe de la farine : Acarus siro
 Tenebroides mauritanicus
 Glycyphagus destructor
 Tyrophagus longior 
